--- a/2_Projektplanung/Projektstrukturplan.xlsx
+++ b/2_Projektplanung/Projektstrukturplan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/STUFF/Dokumente/Scrumiverse/mp_gproz_scrumiverse/2_Projektplanung/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -17,13 +12,14 @@
     <sheet name="Sprint 1 Overview" sheetId="2" r:id="rId3"/>
     <sheet name="Sprint 2 Overview" sheetId="3" r:id="rId4"/>
     <sheet name="Sprint 3 Overview" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 4 Overview" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t xml:space="preserve">SP001 </t>
   </si>
@@ -53,9 +49,6 @@
     <t>US003</t>
   </si>
   <si>
-    <t>Explanation</t>
-  </si>
-  <si>
     <t>Sprint:</t>
   </si>
   <si>
@@ -74,10 +67,6 @@
     <t>SP003</t>
   </si>
   <si>
-    <t>Scrumiverse
-Marketingmix</t>
-  </si>
-  <si>
     <t>Vorbereitung</t>
   </si>
   <si>
@@ -94,13 +83,101 @@
   </si>
   <si>
     <t>Vorgehensmodell ermitteln</t>
+  </si>
+  <si>
+    <t>SP004</t>
+  </si>
+  <si>
+    <t>Nachbereitung</t>
+  </si>
+  <si>
+    <t>US004</t>
+  </si>
+  <si>
+    <t>US005</t>
+  </si>
+  <si>
+    <t>US006</t>
+  </si>
+  <si>
+    <t>US007</t>
+  </si>
+  <si>
+    <t>US008</t>
+  </si>
+  <si>
+    <t>US009</t>
+  </si>
+  <si>
+    <t>Ermitteln der Absatzmöglichkeiten</t>
+  </si>
+  <si>
+    <t>Ermitteln des Kundenkreises</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
+  </si>
+  <si>
+    <t>Zukunftsprognose</t>
+  </si>
+  <si>
+    <t>Softwareanforderungsanalyse</t>
+  </si>
+  <si>
+    <t>Verfassen der Marketingziele</t>
+  </si>
+  <si>
+    <t>US010</t>
+  </si>
+  <si>
+    <t>US011</t>
+  </si>
+  <si>
+    <t>Verfassen der Marketingstrategien</t>
+  </si>
+  <si>
+    <t>US012</t>
+  </si>
+  <si>
+    <t>Brainstorming zu den 4 Ps</t>
+  </si>
+  <si>
+    <t>US013</t>
+  </si>
+  <si>
+    <t>Schriftliche Ausarbeitung zum Marketing-Mix</t>
+  </si>
+  <si>
+    <t>US014</t>
+  </si>
+  <si>
+    <t>Zusammenführung Marketing-Mix</t>
+  </si>
+  <si>
+    <t>US015</t>
+  </si>
+  <si>
+    <t>US016</t>
+  </si>
+  <si>
+    <t>Erklärung</t>
+  </si>
+  <si>
+    <t>Vorbereiten der Präsentation</t>
+  </si>
+  <si>
+    <t>Finalisieren der Abgabe</t>
+  </si>
+  <si>
+    <t>Scrumiverse 
+Marketingkonzept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,18 +186,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -144,12 +236,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF009900"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -185,18 +277,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -204,27 +330,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,13 +389,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1093304</xdr:colOff>
+      <xdr:rowOff>118578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>944393</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123591</xdr:rowOff>
+      <xdr:rowOff>118578</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -266,8 +404,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1230136" y="979665"/>
-          <a:ext cx="5013724" cy="0"/>
+          <a:off x="1189004" y="977855"/>
+          <a:ext cx="6394517" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -381,15 +519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1114505</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>464373</xdr:rowOff>
+      <xdr:colOff>966529</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1114505</xdr:colOff>
+      <xdr:colOff>966529</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>117593</xdr:rowOff>
+      <xdr:rowOff>234855</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -398,8 +536,96 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3823838" y="850077"/>
-          <a:ext cx="0" cy="123590"/>
+          <a:off x="3312060" y="982266"/>
+          <a:ext cx="0" cy="109839"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942138</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>943498</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>235935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Gerader Verbinder 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581266" y="979899"/>
+          <a:ext cx="1360" cy="115313"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106898</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106898</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Gerader Verbinder 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345523" y="860822"/>
+          <a:ext cx="0" cy="109839"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -645,6 +871,892 @@
         <a:xfrm>
           <a:off x="2499387" y="4172998"/>
           <a:ext cx="203828" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>323022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2700130" y="1101587"/>
+          <a:ext cx="0" cy="2882348"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1592391</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1592391</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>318052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3976362" y="1097327"/>
+          <a:ext cx="0" cy="2883768"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1899557</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>348343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>310243</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>348343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2139043" y="1823357"/>
+          <a:ext cx="555171" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2149929" y="2911928"/>
+          <a:ext cx="555171" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>326570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>326570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2144486" y="3989613"/>
+          <a:ext cx="555171" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1594758</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>315684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>315684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerade Verbindung 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978729" y="3978727"/>
+          <a:ext cx="555171" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1594757</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>310243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>310243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Gerade Verbindung 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978728" y="1785257"/>
+          <a:ext cx="555171" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1594757</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>332014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>332014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Gerade Verbindung 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3978728" y="2901043"/>
+          <a:ext cx="555171" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314321</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314321</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>336561</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219446" y="1109870"/>
+          <a:ext cx="0" cy="2893816"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1591973</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1591973</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4497098" y="1104900"/>
+          <a:ext cx="0" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>354555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>354555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="1830930"/>
+          <a:ext cx="557475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1361</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320711</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gerade Verbindung 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2668361" y="2924525"/>
+          <a:ext cx="557475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1900918</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>340109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315268</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>340109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2662918" y="4007234"/>
+          <a:ext cx="557475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1594339</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>316455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8687</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>316455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerade Verbindung 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4499464" y="1792830"/>
+          <a:ext cx="557473" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1594339</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>341890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8687</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>341890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4499464" y="2913640"/>
+          <a:ext cx="557473" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592749</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592749" y="600075"/>
+          <a:ext cx="0" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591965</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>222995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>757849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>222995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="591965" y="603995"/>
+          <a:ext cx="165884" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>270160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>757218</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>270160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerade Verbindung 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="591490" y="1746535"/>
+          <a:ext cx="165728" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>305565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>756750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>305565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gerade Verbindung 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="591022" y="2877315"/>
+          <a:ext cx="165728" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -930,7 +2042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,126 +2050,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:C9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A3:F14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="28.5" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="26.1640625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="14" width="28.5" customWidth="1"/>
-    <col min="15" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="28.5" customWidth="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="28.5" customWidth="1"/>
-    <col min="19" max="19" width="3.5" customWidth="1"/>
-    <col min="20" max="20" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
-    <hyperlink ref="D6" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
+    <hyperlink ref="D6" location="'Sprint 2 Overview'!A1" display="Marktanalyse"/>
+    <hyperlink ref="F6" location="'Sprint 3 Overview'!A1" display="Marketing-Mix"/>
+    <hyperlink ref="H6" location="'Sprint 4 Overview'!A1" display="Nachbereitung"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1069,157 +2256,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="28.5" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1"/>
-    <col min="13" max="13" width="28.5" customWidth="1"/>
-    <col min="14" max="14" width="3.5" customWidth="1"/>
-    <col min="15" max="15" width="28.5" customWidth="1"/>
-    <col min="16" max="16" width="3.5" customWidth="1"/>
-    <col min="17" max="17" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="11" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="8" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
+    <hyperlink ref="D3" location="Overview!A1" display="Vorbereitung"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1229,26 +2416,440 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" location="Overview!A1" display="Marktanalyse"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" location="Overview!A1" display="Marketing-Mix"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Overview!A1" display="Marketing-Mix"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2_Projektplanung/Projektstrukturplan.xlsx
+++ b/2_Projektplanung/Projektstrukturplan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eigene Dokumente\Berufsschule\Geschäftsprozesse\Jahr 2\Mittelstufenprojekt\mp_gproz_scrumiverse\2_Projektplanung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -14,13 +19,13 @@
     <sheet name="Sprint 3 Overview" sheetId="4" r:id="rId5"/>
     <sheet name="Sprint 4 Overview" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -361,7 +366,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2042,7 +2047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2096,11 +2101,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2252,7 @@
     <hyperlink ref="H6" location="'Sprint 4 Overview'!A1" display="Nachbereitung"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2409,8 +2414,8 @@
     <hyperlink ref="D3" location="Overview!A1" display="Vorbereitung"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2418,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2601,7 +2606,8 @@
     <hyperlink ref="D3" location="Overview!A1" display="Marktanalyse"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2609,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2773,8 @@
     <hyperlink ref="D3" location="Overview!A1" display="Marketing-Mix"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2775,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2850,6 +2857,7 @@
     <hyperlink ref="B3" location="Overview!A1" display="Marketing-Mix"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>